--- a/data/airport.xlsx
+++ b/data/airport.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\videostation-airport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0353890-0894-4173-8853-F34E2E255F0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BFA47-97C2-4E4A-A309-5F80C933C698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{E86F1B04-04FB-471E-A5D8-E43ACB186865}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{4BA9E1A8-915D-47ED-96CD-E78DD9F7C3E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entries" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,39 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>airline_code</t>
+    <t>airlinecode</t>
   </si>
   <si>
-    <t>airline_name</t>
+    <t>airlinename</t>
   </si>
   <si>
     <t>zone</t>
   </si>
   <si>
     <t>gate</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Air India</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Air France</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>X5</t>
   </si>
 </sst>
 </file>
@@ -408,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F86CBF-188B-4F60-B84B-7A27C5FFB0CC}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E24B435-640F-4862-A84A-13095402A74F}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,39 +410,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/airport.xlsx
+++ b/data/airport.xlsx
@@ -1,42 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\videostation-airport\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55BFA47-97C2-4E4A-A309-5F80C933C698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D750D217-D2E7-4B6B-9263-47BFA5AAEFAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{4BA9E1A8-915D-47ED-96CD-E78DD9F7C3E0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>airlinecode</t>
-  </si>
-  <si>
-    <t>airlinename</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>zone</t>
   </si>
   <si>
     <t>gate</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>fasd</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>airline_code</t>
+  </si>
+  <si>
+    <t>airline_name</t>
   </si>
 </sst>
 </file>
@@ -387,27 +386,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E24B435-640F-4862-A84A-13095402A74F}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
